--- a/TeamInfo/EECS Project 1 Hours.xlsx
+++ b/TeamInfo/EECS Project 1 Hours.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/c354l536_home_ku_edu/Documents/Documents/GitHub/eecs448-Project-1/TeamInfo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_A93EC53A5B6A4FBD08C68151B526022F404B077C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2FECF5AF-C40E-48E1-9B4B-F58462B777F1}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,53 +72,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="8">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -107,123 +126,157 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -413,44 +466,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.86"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,7 +523,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -497,91 +555,91 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
-        <v>44442.0</v>
+        <v>44442</v>
       </c>
       <c r="C8" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
-        <v>44442.0</v>
+        <v>44442</v>
       </c>
       <c r="E8" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>44442.0</v>
+        <v>44442</v>
       </c>
       <c r="G8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>44442.0</v>
+        <v>44442</v>
       </c>
       <c r="I8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>44442.0</v>
+        <v>44442</v>
       </c>
       <c r="K8" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
-        <v>44445.0</v>
+        <v>44445</v>
       </c>
       <c r="C9" s="7">
         <v>1.5</v>
       </c>
       <c r="D9" s="6">
-        <v>44447.0</v>
+        <v>44447</v>
       </c>
       <c r="E9" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="6">
-        <v>44447.0</v>
+        <v>44447</v>
       </c>
       <c r="G9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>44447.0</v>
+        <v>44447</v>
       </c>
       <c r="I9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="6">
-        <v>44447.0</v>
+        <v>44447</v>
       </c>
       <c r="K9" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
-        <v>44447.0</v>
+        <v>44447</v>
       </c>
       <c r="C10" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6">
-        <v>44449.0</v>
+        <v>44449</v>
       </c>
       <c r="E10" s="9">
         <v>0.5</v>
       </c>
       <c r="F10" s="6">
-        <v>44449.0</v>
+        <v>44449</v>
       </c>
       <c r="G10" s="10">
         <v>0.5</v>
       </c>
       <c r="H10" s="6">
-        <v>44449.0</v>
+        <v>44449</v>
       </c>
       <c r="I10" s="10">
         <v>0.5</v>
@@ -589,127 +647,131 @@
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
-        <v>44449.0</v>
+        <v>44449</v>
       </c>
       <c r="C11" s="9">
         <v>1.5</v>
       </c>
       <c r="D11" s="6">
-        <v>44453.0</v>
+        <v>44453</v>
       </c>
       <c r="E11" s="9">
         <v>2.5</v>
       </c>
       <c r="F11" s="6">
-        <v>44453.0</v>
+        <v>44453</v>
       </c>
       <c r="G11" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="6">
-        <v>44453.0</v>
+        <v>44453</v>
       </c>
       <c r="I11" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>44453.0</v>
+        <v>44453</v>
       </c>
       <c r="K11" s="13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
-        <v>44453.0</v>
+        <v>44453</v>
       </c>
       <c r="C12" s="10">
         <v>2.5</v>
       </c>
       <c r="D12" s="14">
-        <v>44455.0</v>
+        <v>44455</v>
       </c>
       <c r="E12" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="6">
-        <v>44455.0</v>
+        <v>44455</v>
       </c>
       <c r="G12" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="6">
-        <v>44457.0</v>
+        <v>44456</v>
       </c>
       <c r="I12" s="10">
-        <v>3.0</v>
+        <v>1.5</v>
       </c>
       <c r="J12" s="6">
-        <v>44455.0</v>
+        <v>44455</v>
       </c>
       <c r="K12" s="13">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
-        <v>44455.0</v>
+        <v>44455</v>
       </c>
       <c r="C13" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>44457.0</v>
+        <v>44457</v>
       </c>
       <c r="E13" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="6">
-        <v>44458.0</v>
+        <v>44458</v>
       </c>
       <c r="G13" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6">
-        <v>44458.0</v>
+        <v>44457</v>
       </c>
       <c r="I13" s="10">
-        <v>1.0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="6">
-        <v>44457.0</v>
+        <v>44457</v>
       </c>
       <c r="K13" s="13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
-        <v>44458.0</v>
+        <v>44458</v>
       </c>
       <c r="C14" s="15">
         <v>1.5</v>
       </c>
       <c r="D14" s="6">
-        <v>44458.0</v>
+        <v>44458</v>
       </c>
       <c r="E14" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="6">
+        <v>44458</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
       <c r="J14" s="6">
-        <v>44458.0</v>
+        <v>44458</v>
       </c>
       <c r="K14" s="17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
@@ -730,7 +792,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="18">
         <f>SUM(I8:I14)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="18">
@@ -738,7 +800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -750,13 +812,13 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="20">
         <f>C15+E15+G15+I15+K15</f>
-        <v>61</v>
+        <v>62.5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -767,7 +829,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -779,7 +841,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -791,7 +853,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -803,7 +865,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -815,7 +877,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -827,7 +889,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -839,7 +901,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -851,7 +913,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -863,7 +925,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -875,7 +937,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -887,7 +949,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -900,6 +962,6 @@
       <c r="K28" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TeamInfo/EECS Project 1 Hours.xlsx
+++ b/TeamInfo/EECS Project 1 Hours.xlsx
@@ -1,32 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas-my.sharepoint.com/personal/c354l536_home_ku_edu/Documents/Documents/GitHub/eecs448-Project-1/TeamInfo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A93EC53A5B6A4FBD08C68151B526022F404B077C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2FECF5AF-C40E-48E1-9B4B-F58462B777F1}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -72,52 +52,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="8">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -126,157 +104,117 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -466,49 +404,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,7 +456,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -539,13 +472,13 @@
       <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -555,252 +488,248 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
-        <v>44442</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>44442</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>44442</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>44442</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>44442</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="6">
-        <v>44445</v>
-      </c>
-      <c r="C9" s="7">
+    <row r="8">
+      <c r="B8" s="5">
+        <v>44442.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44442.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44442.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>44442.0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>44442.0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5">
+        <v>44445.0</v>
+      </c>
+      <c r="C9" s="6">
         <v>1.5</v>
       </c>
-      <c r="D9" s="6">
-        <v>44447</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>44447</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>44447</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>44447</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="6">
-        <v>44447</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>44449</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D9" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5">
+        <v>44447.0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44449.0</v>
+      </c>
+      <c r="E10" s="7">
         <v>0.5</v>
       </c>
-      <c r="F10" s="6">
-        <v>44449</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="5">
+        <v>44449.0</v>
+      </c>
+      <c r="G10" s="8">
         <v>0.5</v>
       </c>
-      <c r="H10" s="6">
-        <v>44449</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="H10" s="5">
+        <v>44449.0</v>
+      </c>
+      <c r="I10" s="8">
         <v>0.5</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="6">
-        <v>44449</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="5">
+        <v>44449.0</v>
+      </c>
+      <c r="C11" s="7">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6">
-        <v>44453</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="5">
+        <v>44453.0</v>
+      </c>
+      <c r="E11" s="7">
         <v>2.5</v>
       </c>
-      <c r="F11" s="6">
-        <v>44453</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>44453</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>44453</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="F11" s="5">
+        <v>44453.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>44453.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>44453.0</v>
+      </c>
+      <c r="K11" s="11">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
-        <v>44453</v>
-      </c>
-      <c r="C12" s="10">
+    <row r="12">
+      <c r="B12" s="12">
+        <v>44453.0</v>
+      </c>
+      <c r="C12" s="8">
         <v>2.5</v>
       </c>
-      <c r="D12" s="14">
-        <v>44455</v>
-      </c>
-      <c r="E12" s="10">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>44455</v>
-      </c>
-      <c r="G12" s="10">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6">
-        <v>44456</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="D12" s="12">
+        <v>44455.0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44455.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>44457.0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>44455.0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5">
+        <v>44455.0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44457.0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>44457.0</v>
+      </c>
+      <c r="K13" s="11">
         <v>1.5</v>
       </c>
-      <c r="J12" s="6">
-        <v>44455</v>
-      </c>
-      <c r="K12" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="6">
-        <v>44455</v>
-      </c>
-      <c r="C13" s="10">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>44457</v>
-      </c>
-      <c r="E13" s="10">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>44458</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>44457</v>
-      </c>
-      <c r="I13" s="10">
-        <v>3</v>
-      </c>
-      <c r="J13" s="6">
-        <v>44457</v>
-      </c>
-      <c r="K13" s="13">
+    </row>
+    <row r="14">
+      <c r="B14" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="C14" s="14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="6">
-        <v>44458</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>44458</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="6">
-        <v>44458</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>44458</v>
-      </c>
-      <c r="K14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="5">
+        <v>44458.0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="9">
         <f>SUM(C8:C14)</f>
         <v>16</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="18">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <f>SUM(E8:E14)</f>
         <v>16</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="18">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
         <f>SUM(G8:G14)</f>
-        <v>10.5</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
         <f>SUM(I8:I14)</f>
-        <v>9</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
         <f>SUM(K8:K14)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -812,13 +741,13 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+    <row r="17">
+      <c r="B17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <f>C15+E15+G15+I15+K15</f>
-        <v>62.5</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -829,7 +758,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -841,7 +770,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -853,7 +782,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -865,7 +794,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -877,7 +806,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -889,7 +818,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -901,7 +830,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -913,7 +842,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -925,7 +854,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -937,7 +866,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -949,7 +878,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -962,6 +891,6 @@
       <c r="K28" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>